--- a/biology/Zoologie/American_Staffordshire_Terrier/American_Staffordshire_Terrier.xlsx
+++ b/biology/Zoologie/American_Staffordshire_Terrier/American_Staffordshire_Terrier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’American Staffordshire terrier, aussi connu sous les diminutifs Am staff, Amstaff ou Staff, est un chien du groupe 3 selon la Fédération cynologique internationale[1].
+L’American Staffordshire terrier, aussi connu sous les diminutifs Am staff, Amstaff ou Staff, est un chien du groupe 3 selon la Fédération cynologique internationale.
 Étroitement apparenté et assimilé par la loi en France à l'American Pit Bull Terrier, l'American Staffordshire fait partie en France, depuis janvier 1999, des races de 2e catégorie (chien de garde ou de défense) pour autant qu'il soit inscrit au Livre des Origines Français (LOF) et de 1re catégorie (chien d'attaque) s'il ne l'est pas. L'achat, la vente et la détention sont donc soumis à conditions pour tout futur détenteur ou détenteur d'un chien de catégories 1 et 2. Dans d'autres pays tels la Belgique et les États-Unis, les American Staffordshire terriers et les Pit Bulls sont considérés comme deux races distinctes.
 </t>
         </is>
@@ -513,19 +525,21 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De longue date, des combats furent organisés opposant divers animaux, dont des taureaux, à des chiens de combat. Les chiens utilisés dans ces combats étaient principalement des Bulldogs. Les Bulldogs de cette époque étaient cependant différents des Bulldogs modernes ; ils étaient plus grands et plus puissants. Parallèlement, des terriers, chiens plus fins et plus agiles, étaient utilisés dans des combats « chien contre rats ».
 À partir du XVIIIe siècle, afin d'obtenir des chiens de combat combinant force, rapidité et agilité, des croisements entre bulldogs et terriers ont été pratiqués, produisant des Bull-and-terriers.
-Parallèlement, des races assimilées ou ressemblantes étaient aussi utilisées pour aider les nourrices dans leur travail du quotidien. Ces races connues pour leur douceur avec les enfants, viennent de leurs évolutions parmi les enfants en bas âge[2][pas clair]. Leur mâchoire avait toutefois leur utilité lors de la protection contre les kidnappings des plus petits et donc permettait d'éviter les conflits entre les familles influentes .
+Parallèlement, des races assimilées ou ressemblantes étaient aussi utilisées pour aider les nourrices dans leur travail du quotidien. Ces races connues pour leur douceur avec les enfants, viennent de leurs évolutions parmi les enfants en bas âge[pas clair]. Leur mâchoire avait toutefois leur utilité lors de la protection contre les kidnappings des plus petits et donc permettait d'éviter les conflits entre les familles influentes .
 Peu avant 1850, James Hinks, éleveur de Bull-and-Terriers, croisa ces chiens notamment avec des Old English White Terriers. Ces croisements donnèrent naissance à une lignée de chiens homogènes. Une nouvelle race fut officialisée par le Kennel Club anglais sous le nom encore utilisé actuellement de Bull Terrier.
 L'Américan Staffordshire Terrier descend des Staffordshire Bull Terriers (des Bull terriers issus du comté anglais de Staffordshire) importés dans le Nouveau Monde par des  colons anglais. D'autres races de chiens furent importées en Amérique.
 Parmi ces exportations, les Blue Paul Terriers qui étaient généralement d'une couleur gris-bleu. Leur nom vient du pirate Paul Jones qui appréciait cette couleur et utilisait ses chiens dans des combats. Ils étaient plus grands et plus massifs que les Staffordshire Bull-Terriers. C'est de leurs ancêtres lointains, les Blue Paul, que beaucoup d'American Staffordshire Terriers ont cette robe gris-bleu.
 En Amérique, les chiens importés d'Angleterre et utilisés dans les combats ont été communément appelés « Pit Bulls » ou « Pit Bulls-Terriers » (pit signifie « arène », lieu où se déroulaient les combats de chiens). Leur éleveurs ne s’intéressaient qu'à leur performance physique en combat, sans souci de connaître ou de créer une race ; des chiens d'origines diverses étaient alors utilisés. Les American Staffordshire Terriers qui évoluaient à cette époque sous l'appellation de « American Pit bull terrier » étaient aussi utilisés pour la chasse au grand gibier, la garde des troupeaux et des propriétés.
-L'Amstaff et le Pit bull sont unis par un passé commun. La United Kennel Club (UKC) fut la première à reconnaître ces chiens sous l'appellation de American Pit bull Terrier. Le fondateur de la UKC, C. Z. Bennett, a assigné le numéro 1 de l'enregistrement UKC à son propre American Pitt bull Terrier, Bennett’s Ring, en 1898. À partir de ce moment, plus aucun croisement ne fut accepté ; l'American Pitt Bull était né[3]. C'est en 1936 que l'American Kennel Club a reconnu la race American Staffordshire Terrier, 38 ans après la reconnaissance de l'American pit bull. La dénomination initiale a d'ailleurs d'abord été Staffordshire Bull Terrier. Le nom fut changé pour American Staffordshire Terrier en 1976 afin de différencier le chien américain plus grand et plus gros que son parent anglais[3]. L'American Staffordshire Terrier est donc proche de l'American Pitt Bull Terrier.
-Bien que de même origine, l'American Staffordshire Terrier et l'American Pit Bull Terrier sont considérés comme deux races différentes dans la plupart des pays[4] mais pas en France où seul l'American Staffordshire Terrier est considéré comme une race de « type Pit Bull »[5]. Les American Staffordshire Terrier auraient été sélectionnés pour leur meilleur caractère face aux humains[réf. nécessaire].
+L'Amstaff et le Pit bull sont unis par un passé commun. La United Kennel Club (UKC) fut la première à reconnaître ces chiens sous l'appellation de American Pit bull Terrier. Le fondateur de la UKC, C. Z. Bennett, a assigné le numéro 1 de l'enregistrement UKC à son propre American Pitt bull Terrier, Bennett’s Ring, en 1898. À partir de ce moment, plus aucun croisement ne fut accepté ; l'American Pitt Bull était né. C'est en 1936 que l'American Kennel Club a reconnu la race American Staffordshire Terrier, 38 ans après la reconnaissance de l'American pit bull. La dénomination initiale a d'ailleurs d'abord été Staffordshire Bull Terrier. Le nom fut changé pour American Staffordshire Terrier en 1976 afin de différencier le chien américain plus grand et plus gros que son parent anglais. L'American Staffordshire Terrier est donc proche de l'American Pitt Bull Terrier.
+Bien que de même origine, l'American Staffordshire Terrier et l'American Pit Bull Terrier sont considérés comme deux races différentes dans la plupart des pays mais pas en France où seul l'American Staffordshire Terrier est considéré comme une race de « type Pit Bull ». Les American Staffordshire Terrier auraient été sélectionnés pour leur meilleur caractère face aux humains[réf. nécessaire].
 Les deux chiens sont tellement semblables que certains spécialistes décrivent l'American pit bull comme étant le chien de travail et l'American Staffordshire Terrier comme étant son semblable d'exposition, tel que le décrit The Bulldog information Library.
-Il faut cependant noter une grande différence dans les standards des couleurs par rapport au Pit bull. La robustesse des os des pattes avant est aussi plus marquée chez le Amstaff que chez le Pitbull[6].
+Il faut cependant noter une grande différence dans les standards des couleurs par rapport au Pit bull. La robustesse des os des pattes avant est aussi plus marquée chez le Amstaff que chez le Pitbull.
 </t>
         </is>
       </c>
@@ -554,11 +568,13 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il allie la force du Bulldog et l'agilité du Terrier. Résistant, tenace, l'American Staffordshire Terrier est indépendant et sûr de lui[7]. Il a besoin de se dépenser pour libérer son trop-plein d'énergie[réf. nécessaire].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il allie la force du Bulldog et l'agilité du Terrier. Résistant, tenace, l'American Staffordshire Terrier est indépendant et sûr de lui. Il a besoin de se dépenser pour libérer son trop-plein d'énergie[réf. nécessaire].
 Très réceptif, son courage proverbial, son agilité et son intelligence le prédisposent à de multiples activités. C'est un sportif qui démontre sa rapidité et sa souplesse en agilité, son endurance en cani-cross et sa précision en pistage. Il est extrêmement dynamique et plein de vitalité.
-Remarquable gardien des propriétés, c'est aussi un bon chien de compagnie. Des individus dressés pour développer leur agressivité peuvent cependant être mortellement dangereux, même pour des membres de la famille[8].
+Remarquable gardien des propriétés, c'est aussi un bon chien de compagnie. Des individus dressés pour développer leur agressivité peuvent cependant être mortellement dangereux, même pour des membres de la famille.
 </t>
         </is>
       </c>
@@ -587,9 +603,11 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'American Staffordshire Terrier a une durée de vie moyenne de 12 à 16 ans. Ces chiens sont  sujets à des problèmes de santé mineurs tels que la dysplasie du coude, l'hypothyroïdie et les maladies cardiaques, et à des affections majeures comme l'atrophie rétinienne progressive (PRA), la dysplasie canine de la hanche (bien que rarement observée) et l'ataxie cérébelleuse. L'American Staffordshire Terrier peut également souffrir d'une rupture du ligament croisé et d'allergies[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'American Staffordshire Terrier a une durée de vie moyenne de 12 à 16 ans. Ces chiens sont  sujets à des problèmes de santé mineurs tels que la dysplasie du coude, l'hypothyroïdie et les maladies cardiaques, et à des affections majeures comme l'atrophie rétinienne progressive (PRA), la dysplasie canine de la hanche (bien que rarement observée) et l'ataxie cérébelleuse. L'American Staffordshire Terrier peut également souffrir d'une rupture du ligament croisé et d'allergies.
 </t>
         </is>
       </c>
@@ -620,9 +638,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-S'il est inscrit au Livre des origines française (LOF), ce chien est classé en France dans la catégorie 2 par la loi du 6 janvier 1999 [5]. L'American Staffordshire Terrier ne peut donc pas être détenu par un mineur ou une personne condamnée avec un casier judiciaire. Il doit être déclaré à la mairie, vacciné contre la rage tous les ans ; le maître doit souscrire une assurance de responsabilité civile le mentionnant expressément. Il nécessite aussi une identification par puçage ou par tatouage. Il est également obligatoire de lui mettre un collier, une laisse et une muselière pour passer dans les parties communes des immeubles collectifs, pour accéder aux lieux publics, aux locaux ouverts au public et emprunter les transports en commun.
-S'il n'est pas inscrit au Livre des origines françaises, l'American Staffordshire Terrier se trouve classé en France dans la catégorie 1 (chien d'attaque) par la loi du 6 janvier 1999 [5]. Depuis le 6 janvier 1999, il n'est plus possible d’acquérir, de vendre ou de donner un chien de 1re catégorie et ces chiens doivent être stérilisés[10].
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S'il est inscrit au Livre des origines française (LOF), ce chien est classé en France dans la catégorie 2 par la loi du 6 janvier 1999 . L'American Staffordshire Terrier ne peut donc pas être détenu par un mineur ou une personne condamnée avec un casier judiciaire. Il doit être déclaré à la mairie, vacciné contre la rage tous les ans ; le maître doit souscrire une assurance de responsabilité civile le mentionnant expressément. Il nécessite aussi une identification par puçage ou par tatouage. Il est également obligatoire de lui mettre un collier, une laisse et une muselière pour passer dans les parties communes des immeubles collectifs, pour accéder aux lieux publics, aux locaux ouverts au public et emprunter les transports en commun.
+S'il n'est pas inscrit au Livre des origines françaises, l'American Staffordshire Terrier se trouve classé en France dans la catégorie 1 (chien d'attaque) par la loi du 6 janvier 1999 . Depuis le 6 janvier 1999, il n'est plus possible d’acquérir, de vendre ou de donner un chien de 1re catégorie et ces chiens doivent être stérilisés.
 Depuis le 10 novembre 2008, le chien doit passer une évaluation comportementale entre ses 8 mois et 1 an, à l'issue de laquelle il sera de nouveau classé, sur une échelle de 1 à 4 ; le niveau 1 signifiant « Le chien ne présente pas de risque particulier de dangerosité en dehors de ceux inhérents à l'espèce canine » et le niveau 4 « Le chien présente un risque de dangerosité élevé pour certaines personnes ou dans certaines situations ». Ces deux documents permettent de déclarer le chien en mairie. Une fois la déclaration enregistrée, le chien doit toujours être en règle.
 </t>
         </is>
